--- a/medicine/Enfance/Syndrome_d'abstinence_néonatale/Syndrome_d'abstinence_néonatale.xlsx
+++ b/medicine/Enfance/Syndrome_d'abstinence_néonatale/Syndrome_d'abstinence_néonatale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27abstinence_n%C3%A9onatale</t>
+          <t>Syndrome_d'abstinence_néonatale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome d'abstinence néonatale également appelé syndrome de sevrage néonatal, est un syndrome qui apparait après la naissance chez un bébé, dont la mère a pris des drogues[1] ou des substances psychoactives (alcool, certains médicaments, nicotine[2],[3]) pendant la grossesse. Il peut se manifester par des cris, des tremblements, des convulsions, des spasmes.
-30% des bébés, dont la mère prenait des antidépresseurs de type ISRS pendant la grossesse, expérimenteront un syndrome d'abstinence néonatale[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome d'abstinence néonatale également appelé syndrome de sevrage néonatal, est un syndrome qui apparait après la naissance chez un bébé, dont la mère a pris des drogues ou des substances psychoactives (alcool, certains médicaments, nicotine,) pendant la grossesse. Il peut se manifester par des cris, des tremblements, des convulsions, des spasmes.
+30% des bébés, dont la mère prenait des antidépresseurs de type ISRS pendant la grossesse, expérimenteront un syndrome d'abstinence néonatale
 </t>
         </is>
       </c>
